--- a/biology/Histoire de la zoologie et de la botanique/Armando_Dugand/Armando_Dugand.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Armando_Dugand/Armando_Dugand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Armando Dugand (23 juillet 1906, Barranquilla - 5 décembre 1971) est un botaniste, géobotaniste et ornithologue colombien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est un banquier français à succès Francisco Víctor et sa mère Guajira Reyes Gnecco Coronado. Issu d'une famille aisée, ils fait leurs études en France et aux États-Unis (Albany Business College).
 Il s'est marié en 1927 avec Sarita Roncallo.
@@ -550,7 +564,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Livre posthume d'Armando Dugand Éléments pour un cours de Géobotanique, 1962-1968
 1955. Nouvelles notions sur le genre Ficus en Colombie: VII. 245 pp.
